--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E5029-8A2E-4A11-BE38-A6EA937EE932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423916EC-534A-4ABA-BDC8-8D44072E113E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3818,7 +3818,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3829,7 +3829,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3840,7 +3840,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3851,7 +3851,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3906,7 +3906,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3917,7 +3917,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
@@ -3928,7 +3928,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3939,7 +3939,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -3950,7 +3950,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423916EC-534A-4ABA-BDC8-8D44072E113E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03E991-AD77-4D56-B9E1-2B5DEB700A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-20610" yWindow="2670" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,13 +1429,25 @@
   </si>
   <si>
     <t xml:space="preserve">yellow: checked sol  red:unable to do  blue: done by myself </t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>try diif approach</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>maths</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1566,8 +1578,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1577,6 +1617,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1646,6 +1722,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1963,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1972,6 +2126,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
@@ -2305,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="20" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2526,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2537,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2548,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2404,168 +2559,171 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:4" ht="21">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="8" t="s">
+      <c r="C44" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="8" t="s">
+      <c r="C46" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21">
+      <c r="A47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="8" t="s">
+      <c r="C47" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21">
+      <c r="A48" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="8" t="s">
+      <c r="C48" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
+      <c r="A49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="8" t="s">
+      <c r="C49" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
+      <c r="A50" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="8" t="s">
+      <c r="C50" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21">
+      <c r="A51" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
-      <c r="A52" s="8" t="s">
+      <c r="C51" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
+      <c r="A52" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="8" t="s">
+      <c r="C52" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
+      <c r="C53" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A56" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A58" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="C58" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2576,69 +2734,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:4" ht="21">
+      <c r="A60" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
+      <c r="A61" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="39"/>
+    </row>
+    <row r="62" spans="1:4" ht="21">
+      <c r="A62" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
+      <c r="A63" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="43" customFormat="1" ht="21">
+      <c r="A64" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
+      <c r="C64" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2654,134 +2813,134 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A68" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A69" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A72" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A73" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="5" t="s">
+      <c r="C76" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A77" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2796,91 +2955,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A80" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="21">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A81" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A82" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
-      <c r="A83" s="5" t="s">
+      <c r="C82" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A83" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
-      <c r="A84" s="5" t="s">
+      <c r="C83" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A84" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="5" t="s">
+      <c r="C84" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A85" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
-      <c r="A86" s="5" t="s">
+      <c r="C85" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A86" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A87" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2895,177 +3054,177 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:3" s="48" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A89" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
-      <c r="A90" s="5" t="s">
+      <c r="C89" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A90" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
-      <c r="A91" s="5" t="s">
+      <c r="C90" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A91" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
-      <c r="A92" s="5" t="s">
+      <c r="C91" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A92" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
-      <c r="A93" s="5" t="s">
+      <c r="C92" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A93" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
-      <c r="A94" s="5" t="s">
+      <c r="C93" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A94" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
-      <c r="A95" s="5" t="s">
+      <c r="C94" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A95" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="5" t="s">
+      <c r="C95" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A96" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
-      <c r="A97" s="5" t="s">
+      <c r="C96" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A97" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="5" t="s">
+      <c r="C97" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21">
+      <c r="A98" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
+      <c r="C98" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A101" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="5" t="s">
+      <c r="C101" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A102" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
-      <c r="A103" s="5" t="s">
+      <c r="C102" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="48" customFormat="1" ht="21">
+      <c r="A103" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
-      <c r="A104" s="5" t="s">
+      <c r="C103" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A104" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="5" t="s">
+      <c r="C104" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A105" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
+      <c r="C105" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3076,157 +3235,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:4" s="48" customFormat="1" ht="21">
+      <c r="A107" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
-      <c r="A108" s="5" t="s">
+      <c r="C107" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="48" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="48" customFormat="1" ht="21">
+      <c r="A108" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
-      <c r="A109" s="5" t="s">
+      <c r="C108" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A109" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="21">
-      <c r="A110" s="5" t="s">
+      <c r="C109" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="48" customFormat="1" ht="21">
+      <c r="A110" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="21">
-      <c r="A111" s="5" t="s">
+      <c r="C110" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A111" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="21">
-      <c r="A112" s="5" t="s">
+      <c r="C111" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="43" customFormat="1" ht="21">
+      <c r="A112" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21">
-      <c r="A113" s="5" t="s">
+      <c r="C112" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A113" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="21">
-      <c r="A114" s="5" t="s">
+      <c r="C113" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A114" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
-      <c r="A115" s="5" t="s">
+      <c r="C114" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A115" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="21">
-      <c r="A116" s="5" t="s">
+      <c r="C115" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A116" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21">
-      <c r="A117" s="5" t="s">
+      <c r="C116" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A117" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="21">
-      <c r="A118" s="5" t="s">
+      <c r="C117" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A118" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
-      <c r="A119" s="5" t="s">
+      <c r="C118" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A119" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21">
-      <c r="A120" s="5" t="s">
+      <c r="C119" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="54" customFormat="1" ht="21">
+      <c r="A120" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3252,47 +3414,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A123" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="21">
-      <c r="A124" s="5" t="s">
+      <c r="C123" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A124" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="21">
-      <c r="A125" s="5" t="s">
+      <c r="C124" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A125" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="21">
-      <c r="A126" s="5" t="s">
+      <c r="C125" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A126" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3307,102 +3469,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A128" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="21">
-      <c r="A129" s="5" t="s">
+      <c r="C128" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A129" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="21">
-      <c r="A130" s="5" t="s">
+      <c r="C129" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A130" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="21">
-      <c r="A131" s="5" t="s">
+      <c r="C130" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A131" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="21">
-      <c r="A132" s="5" t="s">
+      <c r="C131" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A132" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="21">
-      <c r="A133" s="5" t="s">
+      <c r="C132" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A133" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
-      <c r="A134" s="5" t="s">
+      <c r="C133" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A134" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
-      <c r="A135" s="5" t="s">
+      <c r="C134" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A135" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="5" t="s">
+      <c r="C135" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A136" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3410,146 +3572,146 @@
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="8" t="s">
+    <row r="139" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
+      <c r="C139" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A140" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="8" t="s">
+      <c r="C140" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A141" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="8" t="s">
+      <c r="C141" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A142" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="8" t="s">
+      <c r="C142" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A143" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="8" t="s">
+      <c r="C143" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A144" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
-      <c r="A145" s="8" t="s">
+      <c r="C144" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A145" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
-      <c r="A146" s="8" t="s">
+      <c r="C145" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A146" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
-      <c r="A147" s="8" t="s">
+      <c r="C146" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A147" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
-      <c r="A148" s="8" t="s">
+      <c r="C147" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A148" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
-      <c r="A149" s="8" t="s">
+      <c r="C148" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A149" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="21">
-      <c r="A150" s="8" t="s">
+      <c r="C149" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A150" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="21">
-      <c r="A151" s="8" t="s">
+      <c r="C150" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A151" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3564,91 +3726,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
-      <c r="A153" s="8" t="s">
+    <row r="153" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A153" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="21">
-      <c r="A154" s="8" t="s">
+      <c r="C153" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A154" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="21">
-      <c r="A155" s="8" t="s">
+      <c r="C154" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A155" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="21">
-      <c r="A156" s="8" t="s">
+      <c r="C155" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A156" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21">
-      <c r="A157" s="8" t="s">
+      <c r="C156" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A157" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="21">
-      <c r="A158" s="8" t="s">
+      <c r="C157" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A158" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="21">
-      <c r="A159" s="8" t="s">
+      <c r="C158" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A159" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="21">
-      <c r="A160" s="8" t="s">
+      <c r="C159" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A160" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3707,102 +3869,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
-      <c r="A166" s="8" t="s">
+    <row r="166" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A166" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="21">
-      <c r="A167" s="8" t="s">
+      <c r="C166" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A167" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21">
-      <c r="A168" s="8" t="s">
+      <c r="C167" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A168" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="21">
-      <c r="A169" s="8" t="s">
+      <c r="C168" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A169" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21">
-      <c r="A170" s="8" t="s">
+      <c r="C169" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A170" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21">
-      <c r="A171" s="8" t="s">
+      <c r="C170" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A171" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
-      <c r="A172" s="8" t="s">
+      <c r="C171" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A172" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
-      <c r="A173" s="8" t="s">
+      <c r="C172" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A173" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
+      <c r="C173" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A174" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3832,14 +3994,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A179" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="25" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3942,14 +4104,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A189" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="22" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4096,14 +4258,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A203" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="57" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4425,25 +4587,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="5" t="s">
+    <row r="234" spans="1:3" s="54" customFormat="1" ht="21">
+      <c r="A234" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="5" t="s">
+      <c r="C234" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="54" customFormat="1" ht="21">
+      <c r="A235" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4848,102 +5010,102 @@
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="5" t="s">
+    <row r="275" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A275" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="21">
-      <c r="A276" s="5" t="s">
+      <c r="C275" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A276" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="21">
-      <c r="A277" s="5" t="s">
+      <c r="C276" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A277" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="21">
-      <c r="A278" s="5" t="s">
+      <c r="C277" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A278" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="21">
-      <c r="A279" s="5" t="s">
+      <c r="C278" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A279" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="5" t="s">
+      <c r="C279" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A280" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
-      <c r="A281" s="5" t="s">
+      <c r="C280" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A281" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="21">
-      <c r="A282" s="5" t="s">
+      <c r="C281" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A282" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="21">
-      <c r="A283" s="5" t="s">
+      <c r="C282" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A283" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4969,47 +5131,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
-      <c r="A286" s="5" t="s">
+    <row r="286" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A286" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="21">
-      <c r="A287" s="5" t="s">
+      <c r="C286" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A287" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="5" t="s">
+      <c r="C287" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A288" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="5" t="s">
+      <c r="C288" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A289" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="57" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5035,14 +5197,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="5" t="s">
+    <row r="292" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A292" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="22" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03E991-AD77-4D56-B9E1-2B5DEB700A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59F09B-B871-45CF-9E68-3A7384A3C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2670" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1607,7 +1607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1656,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1670,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1800,6 +1806,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2117,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2160,25 +2181,25 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="25" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2259,14 +2280,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="61" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2281,36 +2302,36 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" s="48" customFormat="1" ht="21">
+      <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="25" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="25" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2325,14 +2346,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:4" s="54" customFormat="1" ht="21">
+      <c r="A21" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5249,14 +5270,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="5" t="s">
+    <row r="298" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A298" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5282,58 +5303,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A301" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="5" t="s">
+      <c r="C301" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A302" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="5" t="s">
+      <c r="C302" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A303" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="5" t="s">
+      <c r="C303" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A304" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
-      <c r="A305" s="5" t="s">
+      <c r="C304" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A305" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C305" s="57" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5348,14 +5369,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
-      <c r="A307" s="5" t="s">
+    <row r="307" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A307" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5381,14 +5402,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
-      <c r="A310" s="5" t="s">
+    <row r="310" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A310" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5403,25 +5424,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
-      <c r="A312" s="5" t="s">
+    <row r="312" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A312" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
-      <c r="A313" s="5" t="s">
+      <c r="C312" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A313" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5436,14 +5457,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
-      <c r="A315" s="5" t="s">
+    <row r="315" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A315" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5469,14 +5490,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
-      <c r="A318" s="5" t="s">
+    <row r="318" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A318" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5502,36 +5523,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
-      <c r="A321" s="5" t="s">
+    <row r="321" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A321" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="21">
-      <c r="A322" s="5" t="s">
+      <c r="C321" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A322" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
-      <c r="A323" s="5" t="s">
+      <c r="C322" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A323" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5546,47 +5567,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
-      <c r="A325" s="5" t="s">
+    <row r="325" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A325" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
-      <c r="A326" s="5" t="s">
+      <c r="C325" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A326" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="21">
-      <c r="A327" s="5" t="s">
+      <c r="C326" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A327" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="21">
-      <c r="A328" s="5" t="s">
+      <c r="C327" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A328" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5601,25 +5622,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
-      <c r="A330" s="5" t="s">
+    <row r="330" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A330" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="21">
-      <c r="A331" s="5" t="s">
+      <c r="C330" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A331" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C331" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6425,47 +6446,47 @@
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="5" t="s">
+    <row r="410" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A410" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="6" t="s">
+      <c r="B410" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="5" t="s">
+      <c r="C410" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A411" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B411" s="6" t="s">
+      <c r="B411" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="5" t="s">
+      <c r="C411" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A412" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B412" s="6" t="s">
+      <c r="B412" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="5" t="s">
+      <c r="C412" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A413" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B413" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C413" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6480,36 +6501,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="5" t="s">
+    <row r="415" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A415" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B415" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="5" t="s">
+      <c r="C415" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A416" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="5" t="s">
+      <c r="C416" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A417" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6546,91 +6567,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="5" t="s">
+    <row r="421" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A421" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="5" t="s">
+      <c r="C421" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A422" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B422" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="5" t="s">
+      <c r="C422" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A423" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="5" t="s">
+      <c r="C423" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A424" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B424" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="5" t="s">
+      <c r="C424" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A425" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="5" t="s">
+      <c r="C425" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A426" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B426" s="6" t="s">
+      <c r="B426" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="21">
-      <c r="A427" s="5" t="s">
+      <c r="C426" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A427" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B427" s="6" t="s">
+      <c r="B427" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
-      <c r="A428" s="5" t="s">
+      <c r="C427" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A428" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B428" s="6" t="s">
+      <c r="B428" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C428" s="4" t="s">
+      <c r="C428" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6645,14 +6666,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
-      <c r="A430" s="5" t="s">
+    <row r="430" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A430" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B430" s="6" t="s">
+      <c r="B430" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="4" t="s">
+      <c r="C430" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6667,179 +6688,179 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="5" t="s">
+    <row r="432" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A432" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B432" s="6" t="s">
+      <c r="B432" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="5" t="s">
+      <c r="C432" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A433" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B433" s="6" t="s">
+      <c r="B433" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="5" t="s">
+      <c r="C433" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A434" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B434" s="6" t="s">
+      <c r="B434" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="5" t="s">
+      <c r="C434" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A435" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B435" s="6" t="s">
+      <c r="B435" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="5" t="s">
+      <c r="C435" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A436" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B436" s="6" t="s">
+      <c r="B436" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C436" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="5" t="s">
+      <c r="C436" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A437" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B437" s="6" t="s">
+      <c r="B437" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="5" t="s">
+      <c r="C437" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A438" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B438" s="6" t="s">
+      <c r="B438" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="5" t="s">
+      <c r="C438" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A439" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B439" s="6" t="s">
+      <c r="B439" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="5" t="s">
+      <c r="C439" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A440" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B440" s="6" t="s">
+      <c r="B440" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="5" t="s">
+      <c r="C440" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A441" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B441" s="6" t="s">
+      <c r="B441" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="5" t="s">
+      <c r="C441" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A442" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B442" s="6" t="s">
+      <c r="B442" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="5" t="s">
+      <c r="C442" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A443" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B443" s="6" t="s">
+      <c r="B443" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="5" t="s">
+      <c r="C443" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A444" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B444" s="6" t="s">
+      <c r="B444" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="5" t="s">
+      <c r="C444" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A445" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B445" s="6" t="s">
+      <c r="B445" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="5" t="s">
+      <c r="C445" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A446" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B446" s="6" t="s">
+      <c r="B446" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="5" t="s">
+      <c r="C446" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A447" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B447" s="6" t="s">
+      <c r="B447" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C447" s="4" t="s">
+      <c r="C447" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6854,91 +6875,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="5" t="s">
+    <row r="449" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A449" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B449" s="6" t="s">
+      <c r="B449" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="5" t="s">
+      <c r="C449" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A450" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B450" s="6" t="s">
+      <c r="B450" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="C450" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="5" t="s">
+      <c r="C450" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A451" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B451" s="6" t="s">
+      <c r="B451" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="5" t="s">
+      <c r="C451" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A452" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B452" s="6" t="s">
+      <c r="B452" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="C452" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="5" t="s">
+      <c r="C452" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A453" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B453" s="6" t="s">
+      <c r="B453" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C453" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="5" t="s">
+      <c r="C453" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A454" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B454" s="6" t="s">
+      <c r="B454" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="C454" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="5" t="s">
+      <c r="C454" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A455" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B455" s="6" t="s">
+      <c r="B455" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C455" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="5" t="s">
+      <c r="C455" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" s="65" customFormat="1" ht="21">
+      <c r="A456" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="B456" s="6" t="s">
+      <c r="B456" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C456" s="64" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6953,14 +6974,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="5" t="s">
+    <row r="458" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A458" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B458" s="6" t="s">
+      <c r="B458" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="C458" s="4" t="s">
+      <c r="C458" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7008,14 +7029,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="5" t="s">
+    <row r="463" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A463" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B463" s="6" t="s">
+      <c r="B463" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="C463" s="28" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59F09B-B871-45CF-9E68-3A7384A3C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A484CEF-AA4B-4AAF-9F9F-261B099B26B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6985,47 +6985,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="5" t="s">
+    <row r="459" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A459" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B459" s="6" t="s">
+      <c r="B459" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C459" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="5" t="s">
+      <c r="C459" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A460" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B460" s="6" t="s">
+      <c r="B460" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C460" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="5" t="s">
+      <c r="C460" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A461" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="B461" s="6" t="s">
+      <c r="B461" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="5" t="s">
+      <c r="C461" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A462" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B462" s="6" t="s">
+      <c r="B462" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C462" s="4" t="s">
+      <c r="C462" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7040,69 +7040,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="5" t="s">
+    <row r="464" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A464" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B464" s="6" t="s">
+      <c r="B464" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="C464" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5" t="s">
+      <c r="C464" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A465" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B465" s="6" t="s">
+      <c r="B465" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C465" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="5" t="s">
+      <c r="C465" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A466" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B466" s="6" t="s">
+      <c r="B466" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="5" t="s">
+      <c r="C466" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A467" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B467" s="6" t="s">
+      <c r="B467" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="5" t="s">
+      <c r="C467" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A468" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B468" s="6" t="s">
+      <c r="B468" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C468" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
+      <c r="C468" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A469" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B469" s="6" t="s">
+      <c r="B469" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4" t="s">
+      <c r="C469" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7115,14 +7115,14 @@
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
+    <row r="472" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A472" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="6" t="s">
+      <c r="B472" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C472" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7137,47 +7137,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="5" t="s">
+    <row r="474" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A474" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B474" s="6" t="s">
+      <c r="B474" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="5" t="s">
+      <c r="C474" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A475" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B475" s="6" t="s">
+      <c r="B475" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="C475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="5" t="s">
+      <c r="C475" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A476" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B476" s="6" t="s">
+      <c r="B476" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="C476" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="5" t="s">
+      <c r="C476" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A477" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="B477" s="6" t="s">
+      <c r="B477" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C477" s="25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A484CEF-AA4B-4AAF-9F9F-261B099B26B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2E881-4B53-4F0C-B227-1C2017B6BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1676,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,6 +1821,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2138,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="B481" sqref="B481"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5696,36 +5699,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
-      <c r="A338" s="8" t="s">
+    <row r="338" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A338" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="B338" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
-      <c r="A339" s="8" t="s">
+      <c r="C338" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A339" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B339" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
-      <c r="A340" s="8" t="s">
+      <c r="C339" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A340" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B340" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C340" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5740,14 +5743,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
-      <c r="A342" s="8" t="s">
+    <row r="342" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A342" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="B342" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C342" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5762,47 +5765,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="8" t="s">
+    <row r="344" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A344" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
-      <c r="A345" s="8" t="s">
+      <c r="C344" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A345" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B345" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C345" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="8" t="s">
+      <c r="C345" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A346" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B346" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C346" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="8" t="s">
+      <c r="C346" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A347" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B347" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C347" s="4" t="s">
+      <c r="C347" s="25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2E881-4B53-4F0C-B227-1C2017B6BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339551C5-C492-43F6-8FB2-D393D7ED1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,6 +1662,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1676,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1824,6 +1830,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2141,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4641,91 +4655,91 @@
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A238" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="5" t="s">
+      <c r="C238" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A239" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="5" t="s">
+      <c r="C239" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="70" customFormat="1" ht="21">
+      <c r="A240" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="21">
-      <c r="A241" s="5" t="s">
+      <c r="C240" s="69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A241" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="21">
-      <c r="A242" s="5" t="s">
+      <c r="C241" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A242" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="5" t="s">
+      <c r="C242" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A243" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="5" t="s">
+      <c r="C243" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A244" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="5" t="s">
+      <c r="C244" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A245" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4740,25 +4754,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A247" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="5" t="s">
+      <c r="C247" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" s="58" customFormat="1" ht="21">
+      <c r="A248" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="57" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4806,25 +4820,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A253" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="21">
-      <c r="A254" s="5" t="s">
+      <c r="C253" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A254" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4839,14 +4853,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
-      <c r="A256" s="5" t="s">
+    <row r="256" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A256" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4872,14 +4886,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A259" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4894,80 +4908,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
-      <c r="A261" s="5" t="s">
+    <row r="261" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A261" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="21">
-      <c r="A262" s="5" t="s">
+      <c r="C261" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A262" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="21">
-      <c r="A263" s="5" t="s">
+      <c r="C262" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" s="43" customFormat="1" ht="21">
+      <c r="A263" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="21">
-      <c r="A264" s="5" t="s">
+      <c r="C263" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A264" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="21">
-      <c r="A265" s="5" t="s">
+      <c r="C264" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A265" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="21">
-      <c r="A266" s="5" t="s">
+      <c r="C265" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A266" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="5" t="s">
+      <c r="C266" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A267" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4982,36 +4996,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="5" t="s">
+    <row r="269" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A269" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21">
-      <c r="A270" s="5" t="s">
+      <c r="C269" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A270" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="21">
-      <c r="A271" s="5" t="s">
+      <c r="C270" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A271" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339551C5-C492-43F6-8FB2-D393D7ED1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AAAC7-A6CA-4E0C-998D-BA40DA359D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2155,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5908,25 +5908,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="8" t="s">
+    <row r="357" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A357" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="8" t="s">
+      <c r="C357" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A358" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B358" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C358" s="4" t="s">
+      <c r="C358" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5941,102 +5941,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
-      <c r="A360" s="8" t="s">
+    <row r="360" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A360" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="B360" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C360" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="8" t="s">
+      <c r="C360" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A361" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B361" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="8" t="s">
+      <c r="C361" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A362" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B362" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="8" t="s">
+      <c r="C362" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A363" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B363" s="6" t="s">
+      <c r="B363" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="C363" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
-      <c r="A364" s="8" t="s">
+      <c r="C363" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A364" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="B364" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C364" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
-      <c r="A365" s="8" t="s">
+      <c r="C364" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A365" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B365" s="6" t="s">
+      <c r="B365" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C365" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="8" t="s">
+      <c r="C365" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A366" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B366" s="6" t="s">
+      <c r="B366" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="8" t="s">
+      <c r="C366" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A367" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B367" s="6" t="s">
+      <c r="B367" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="C367" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="8" t="s">
+      <c r="C367" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" s="47" customFormat="1" ht="21">
+      <c r="A368" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B368" s="6" t="s">
+      <c r="B368" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="C368" s="4" t="s">
+      <c r="C368" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6062,25 +6062,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="8" t="s">
+    <row r="371" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A371" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B371" s="6" t="s">
+      <c r="B371" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C371" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="8" t="s">
+      <c r="C371" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" s="50" customFormat="1" ht="21">
+      <c r="A372" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B372" s="6" t="s">
+      <c r="B372" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="C372" s="4" t="s">
+      <c r="C372" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6183,14 +6183,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="8" t="s">
+    <row r="382" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A382" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B382" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C382" s="4" t="s">
+      <c r="C382" s="22" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450dsa/FINAL450_my.xlsx
+++ b/450dsa/FINAL450_my.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-structures\450dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AAAC7-A6CA-4E0C-998D-BA40DA359D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE83151-ABB4-4D74-958D-9DF2BB060D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>maths</t>
+  </si>
+  <si>
+    <t>revised</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -2155,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6385,11 +6391,11 @@
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:4" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" spans="1:4" ht="21">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" spans="1:4" ht="21">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" spans="1:4" ht="21">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" spans="1:4" ht="21">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" spans="1:4" ht="21">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6455,15 +6461,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" spans="1:4" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" spans="1:4" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
-    </row>
-    <row r="410" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="D409" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A410" s="20" t="s">
         <v>393</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="411" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A411" s="20" t="s">
         <v>393</v>
       </c>
@@ -6484,8 +6493,11 @@
       <c r="C411" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="D411" s="48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A412" s="20" t="s">
         <v>393</v>
       </c>
@@ -6496,7 +6508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="413" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A413" s="36" t="s">
         <v>393</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" spans="1:4" ht="21">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="50" customFormat="1" ht="21">
+    <row r="415" spans="1:4" s="50" customFormat="1" ht="21">
       <c r="A415" s="49" t="s">
         <v>393</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="416" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A416" s="20" t="s">
         <v>393</v>
       </c>
@@ -6540,7 +6552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="417" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A417" s="36" t="s">
         <v>393</v>
       </c>
@@ -6550,8 +6562,11 @@
       <c r="C417" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="21">
+      <c r="D417" s="47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6562,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6573,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6584,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="50" customFormat="1" ht="21">
+    <row r="421" spans="1:4" s="50" customFormat="1" ht="21">
       <c r="A421" s="49" t="s">
         <v>393</v>
       </c>
@@ -6595,7 +6610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="422" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A422" s="20" t="s">
         <v>393</v>
       </c>
@@ -6606,7 +6621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="423" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A423" s="36" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="424" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A424" s="36" t="s">
         <v>393</v>
       </c>
@@ -6628,7 +6643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="425" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A425" s="20" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="426" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A426" s="20" t="s">
         <v>393</v>
       </c>
@@ -6650,7 +6665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="427" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A427" s="36" t="s">
         <v>393</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="428" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A428" s="36" t="s">
         <v>393</v>
       </c>
@@ -6672,7 +6687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6683,7 +6698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="430" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A430" s="20" t="s">
         <v>393</v>
       </c>
@@ -6694,7 +6709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6705,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" s="50" customFormat="1" ht="21">
+    <row r="432" spans="1:4" s="50" customFormat="1" ht="21">
       <c r="A432" s="49" t="s">
         <v>393</v>
       </c>
@@ -6716,7 +6731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="433" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A433" s="20" t="s">
         <v>393</v>
       </c>
@@ -6727,7 +6742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" s="50" customFormat="1" ht="21">
+    <row r="434" spans="1:4" s="50" customFormat="1" ht="21">
       <c r="A434" s="49" t="s">
         <v>393</v>
       </c>
@@ -6738,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="435" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A435" s="20" t="s">
         <v>393</v>
       </c>
@@ -6749,7 +6764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="436" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A436" s="36" t="s">
         <v>393</v>
       </c>
@@ -6760,7 +6775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="437" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A437" s="20" t="s">
         <v>393</v>
       </c>
@@ -6771,7 +6786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="438" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A438" s="20" t="s">
         <v>393</v>
       </c>
@@ -6782,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="50" customFormat="1" ht="21">
+    <row r="439" spans="1:4" s="50" customFormat="1" ht="21">
       <c r="A439" s="49" t="s">
         <v>393</v>
       </c>
@@ -6793,7 +6808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="440" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A440" s="36" t="s">
         <v>393</v>
       </c>
@@ -6804,7 +6819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="441" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A441" s="36" t="s">
         <v>393</v>
       </c>
@@ -6815,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="442" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A442" s="20" t="s">
         <v>393</v>
       </c>
@@ -6826,7 +6841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="443" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A443" s="36" t="s">
         <v>393</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="47" customFormat="1" ht="21">
+    <row r="444" spans="1:4" s="47" customFormat="1" ht="21">
       <c r="A444" s="36" t="s">
         <v>393</v>
       </c>
@@ -6848,7 +6863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="445" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A445" s="20" t="s">
         <v>393</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="48" customFormat="1" ht="21">
+    <row r="446" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A446" s="20" t="s">
         <v>393</v>
       </c>
@@ -6869,8 +6884,11 @@
       <c r="C446" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="D446" s="48" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" s="48" customFormat="1" ht="21">
       <c r="A447" s="20" t="s">
         <v>393</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
